--- a/Views/Pages/Formato_reporte_SAO.xlsx
+++ b/Views/Pages/Formato_reporte_SAO.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Seijas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieliglesias/Sites/SAO/Views/Pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -382,26 +385,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -410,7 +413,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -418,22 +421,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,31 +445,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,36 +477,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,108 +514,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,9 +771,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -805,9 +806,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -990,988 +991,924 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35:O35"/>
+      <selection activeCell="J38" sqref="J38:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="29" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="13" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="15" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="13" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="15" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="13" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="15" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="13" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="15" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="15" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="13" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="15" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="13" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="13" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="15" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="13" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="15" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="18" t="s">
+      <c r="I25" s="35"/>
+      <c r="J25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="20" t="s">
+      <c r="K25" s="35"/>
+      <c r="L25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="18" t="s">
+      <c r="M25" s="35"/>
+      <c r="N25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="19" t="s">
+      <c r="O25" s="35"/>
+    </row>
+    <row r="26" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="19" t="s">
+      <c r="G26" s="36"/>
+      <c r="H26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="19" t="s">
+      <c r="I26" s="36"/>
+      <c r="J26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="19" t="s">
+      <c r="K26" s="36"/>
+      <c r="L26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="19" t="s">
+      <c r="M26" s="36"/>
+      <c r="N26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-    </row>
-    <row r="28" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="25" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25" t="s">
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="26" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="O29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="26" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="26"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="O30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="26" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="26"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="O31" s="25"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="26" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O32" s="26"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="O32" s="25"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="26" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="O33" s="25"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D35" s="30" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D35" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="30" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="36"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="36"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="36"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="36"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="9"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="9"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="9"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="35" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="35" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="36"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="A38:D39"/>
-    <mergeCell ref="F38:H39"/>
-    <mergeCell ref="J38:N39"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:K3"/>
-    <mergeCell ref="A4:O5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="K15:O16"/>
-    <mergeCell ref="K17:O18"/>
-    <mergeCell ref="K19:O20"/>
-    <mergeCell ref="K21:O22"/>
-    <mergeCell ref="K23:O24"/>
-    <mergeCell ref="K7:O8"/>
-    <mergeCell ref="K9:O10"/>
-    <mergeCell ref="K11:O12"/>
-    <mergeCell ref="K13:O14"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
+  <mergeCells count="128">
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="E36:O36"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="O25:O26"/>
@@ -1996,24 +1933,90 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="A4:O5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K15:O16"/>
+    <mergeCell ref="K17:O18"/>
+    <mergeCell ref="K19:O20"/>
+    <mergeCell ref="K21:O22"/>
+    <mergeCell ref="K23:O24"/>
+    <mergeCell ref="K7:O8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="K9:O10"/>
+    <mergeCell ref="K11:O12"/>
+    <mergeCell ref="K13:O14"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="A38:D39"/>
+    <mergeCell ref="F38:H39"/>
+    <mergeCell ref="J38:N39"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="I38:I40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
